--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009119</t>
+          <t>009342</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发品质回报混合A</t>
+          <t>易方达优质企业三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>108.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009120</t>
+          <t>009119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发品质回报混合C</t>
+          <t>广发品质回报混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011430</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发估值优势混合C</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>96.70</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006671</t>
+          <t>007548</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发消费升级股票</t>
+          <t>易方达ESG责任投资股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>006671</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>广发消费升级股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007548</t>
+          <t>006136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达ESG责任投资股票</t>
+          <t>广发估值优势混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>004877</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>004878</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006136</t>
+          <t>004879</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发估值优势混合A</t>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.00</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004877</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004878</t>
+          <t>009120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+          <t>广发品质回报混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004879</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84.64</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009342</t>
+          <t>011430</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达优质企业三年持有期混合</t>
+          <t>广发估值优势混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>009342</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>易方达优质企业三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>105.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007356</t>
+          <t>008934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合C</t>
+          <t>大成科技消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009342</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达优质企业三年持有期混合</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8199</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006671</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发消费升级股票</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>160918</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>大成中小盘混合(LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011462</t>
+          <t>007548</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合C</t>
+          <t>易方达ESG责任投资股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4349</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007548</t>
+          <t>006671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达ESG责任投资股票</t>
+          <t>广发消费升级股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>008935</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>大成科技消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160918</t>
+          <t>007356</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成中小盘混合(LOF)A</t>
+          <t>汇添富科技创新灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011159</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成中小盘混合(LOF)C</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008934</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成科技消费股票A</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008935</t>
+          <t>011462</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成科技消费股票C</t>
+          <t>东吴兴享成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1350,26 +1660,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010500</t>
+          <t>011159</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1668,7 +1669,6 @@
           <t>大成中小盘混合(LOF)C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>73.54</t>
@@ -1684,6 +1684,594 @@
       </c>
       <c r="H17" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3034</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8546</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5757</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2277,4 +2278,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2448,4 +2449,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2457,7 +2458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2468,17 +2469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2488,14 +2509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2504,14 +2547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.94</v>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2520,14 +2585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.21</v>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2536,13 +2623,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2704,7 +2705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2715,17 +2716,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2735,14 +2756,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2751,14 +2794,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2767,14 +2832,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.94</v>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2783,14 +2870,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.21</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2799,13 +2908,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,585 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009342</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达优质企业三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>108.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.5802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009119</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发品质回报混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9121</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达亚洲精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6656</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005504</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富沪港深大盘价值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4445</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007548</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达ESG责任投资股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3430</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.21</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006671</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发消费升级股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3080</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006136</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发估值优势混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2880</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004877</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1345</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004878</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1345</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>004879</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1345</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0539</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009120</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发品质回报混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0464</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006205</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011430</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发估值优势混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1044,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1095,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009342</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达优质企业三年持有期混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>105.75</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.3721</t>
+          <t>0.2064</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1133,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008934</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成科技消费股票A</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1841</t>
+          <t>0.0630</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1171,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>013441</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>西藏东财创新医疗六个月定开混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.16</t>
+          <t>78.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8199</t>
+          <t>0.0374</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1209,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.03</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8126</t>
+          <t>0.0300</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1247,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160918</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成中小盘混合(LOF)A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.82</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.54</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5295</t>
+          <t>0.0224</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1285,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007548</t>
+          <t>011149</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达ESG责任投资股票</t>
+          <t>创金合信ESG责任投资股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4349</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1323,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006671</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发消费升级股票</t>
+          <t>创金合信ESG责任投资股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3278</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1361,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008935</t>
+          <t>009734</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成科技消费股票C</t>
+          <t>创金合信港股通大消费精选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.86</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3114</t>
+          <t>0.0030</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1399,295 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>009733</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>创金合信港股通大消费精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>83.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.0026</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1473</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0870</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011149</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>66.16</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011150</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信ESG责任投资股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010500</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中银创新医疗混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>87.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1701,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1722,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1752,36 +1037,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118001</t>
+          <t>010405</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达亚洲精选股票(QDII)</t>
+          <t>惠升医药健康6个月持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>41.91</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>76.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3034</t>
+          <t>0.3824</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1790,36 +1075,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007355</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科技创新灵活配置混合A</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.79</t>
+          <t>7.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.81</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8546</t>
+          <t>0.2375</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1828,36 +1113,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010330</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴兴享成长混合A</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.58</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.09</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8119</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1866,36 +1151,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>013441</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>西藏东财创新医疗六个月定开混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>90.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5757</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1904,378 +1189,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.17</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3946</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009852</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>银华品质消费股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3555</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010372</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成成长进取混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1778</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>84.81</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1549</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1271</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0958</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0617</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011462</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴兴享成长混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>78.09</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005209</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东吴双三角股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>86.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005210</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东吴双三角股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>86.41</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +1402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2480,7 +1423,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2510,36 +1453,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010405</t>
+          <t>118001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>惠升医药健康6个月持有期混合</t>
+          <t>易方达亚洲精选股票(QDII)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.82</t>
+          <t>41.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.19</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3824</t>
+          <t>1.3034</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2548,36 +1491,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>22.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>84.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2375</t>
+          <t>0.8546</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2586,36 +1529,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>18.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>78.09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0710</t>
+          <t>0.8119</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2624,36 +1567,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013441</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西藏东财创新医疗六个月定开混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.11</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.5757</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2662,36 +1605,378 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009852</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华品质消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>009017</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>银华港股通精选股票</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2705,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2726,7 +2011,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2756,36 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>009342</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>易方达优质企业三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>105.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2064</t>
+          <t>5.3721</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2794,36 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>008934</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>大成科技消费股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>26.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.01</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>1.1841</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2832,36 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013441</t>
+          <t>010330</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西藏东财创新医疗六个月定开混合</t>
+          <t>东吴兴享成长混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>26.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.42</t>
+          <t>66.16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0374</t>
+          <t>0.8199</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2870,36 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>007355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>汇添富科技创新灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>88.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0300</t>
+          <t>0.8126</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2908,36 +2193,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>160918</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>大成中小盘混合(LOF)A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>12.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.21</t>
+          <t>73.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.5295</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -2946,36 +2231,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011149</t>
+          <t>007548</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票A</t>
+          <t>易方达ESG责任投资股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.4349</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2984,36 +2269,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>006671</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信ESG责任投资股票C</t>
+          <t>广发消费升级股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>89.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -3022,36 +2307,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009734</t>
+          <t>008935</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票C</t>
+          <t>大成科技消费股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.3114</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -3060,36 +2345,295 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009733</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信港股通大消费精选股票A</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3103,128 +2647,584 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009342</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达优质企业三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.38</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达亚洲精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6656</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007548</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达ESG责任投资股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.08</v>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>10.21</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.08</v>
       </c>
     </row>
@@ -583,6 +600,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1396,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2641,7 +2828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01951-锦欣生殖.xlsx
+++ b/数据整理/stocks/港股/01951-锦欣生殖.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>10.21</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.08</v>
       </c>
     </row>
@@ -600,6 +617,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3545</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013551</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富品牌价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016921</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +2606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2828,7 +3851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
